--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H2">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.919927666666667</v>
+        <v>4.170713666666666</v>
       </c>
       <c r="N2">
-        <v>14.759783</v>
+        <v>12.512141</v>
       </c>
       <c r="O2">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="P2">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="Q2">
-        <v>81.5735732960939</v>
+        <v>19.87242184562889</v>
       </c>
       <c r="R2">
-        <v>734.1621596648451</v>
+        <v>178.85179661066</v>
       </c>
       <c r="S2">
-        <v>0.1830047731061813</v>
+        <v>0.05666991003762765</v>
       </c>
       <c r="T2">
-        <v>0.1830047731061813</v>
+        <v>0.05666991003762765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H3">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.051817</v>
       </c>
       <c r="O3">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017604</v>
       </c>
       <c r="P3">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017603</v>
       </c>
       <c r="Q3">
-        <v>110.8213016254617</v>
+        <v>31.84732063004666</v>
       </c>
       <c r="R3">
-        <v>997.391714629155</v>
+        <v>286.62588567042</v>
       </c>
       <c r="S3">
-        <v>0.2486200657863105</v>
+        <v>0.09081856298462214</v>
       </c>
       <c r="T3">
-        <v>0.2486200657863105</v>
+        <v>0.09081856298462213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H4">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.478597666666666</v>
+        <v>10.975355</v>
       </c>
       <c r="N4">
-        <v>16.435793</v>
+        <v>32.926065</v>
       </c>
       <c r="O4">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775733</v>
       </c>
       <c r="P4">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775732</v>
       </c>
       <c r="Q4">
-        <v>90.83645504577723</v>
+        <v>52.29485932076667</v>
       </c>
       <c r="R4">
-        <v>817.5280954119951</v>
+        <v>470.6537338869</v>
       </c>
       <c r="S4">
-        <v>0.2037854193916782</v>
+        <v>0.1491285257609454</v>
       </c>
       <c r="T4">
-        <v>0.2037854193916782</v>
+        <v>0.1491285257609454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.919927666666667</v>
+        <v>4.170713666666666</v>
       </c>
       <c r="N5">
-        <v>14.759783</v>
+        <v>12.512141</v>
       </c>
       <c r="O5">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="P5">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="Q5">
-        <v>42.18419288322234</v>
+        <v>35.76032041433633</v>
       </c>
       <c r="R5">
-        <v>379.6577359490011</v>
+        <v>321.8428837290269</v>
       </c>
       <c r="S5">
-        <v>0.09463737256231183</v>
+        <v>0.1019772102534616</v>
       </c>
       <c r="T5">
-        <v>0.09463737256231183</v>
+        <v>0.1019772102534615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.051817</v>
       </c>
       <c r="O6">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017604</v>
       </c>
       <c r="P6">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017603</v>
       </c>
       <c r="Q6">
         <v>57.309088892911</v>
@@ -818,10 +818,10 @@
         <v>515.781800036199</v>
       </c>
       <c r="S6">
-        <v>0.1285690498281918</v>
+        <v>0.1634275347578752</v>
       </c>
       <c r="T6">
-        <v>0.1285690498281918</v>
+        <v>0.1634275347578751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.478597666666666</v>
+        <v>10.975355</v>
       </c>
       <c r="N7">
-        <v>16.435793</v>
+        <v>32.926065</v>
       </c>
       <c r="O7">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775733</v>
       </c>
       <c r="P7">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775732</v>
       </c>
       <c r="Q7">
-        <v>46.97431270505233</v>
+        <v>94.104329097895</v>
       </c>
       <c r="R7">
-        <v>422.768814345471</v>
+        <v>846.938961881055</v>
       </c>
       <c r="S7">
-        <v>0.1053836811488378</v>
+        <v>0.2683560114391408</v>
       </c>
       <c r="T7">
-        <v>0.1053836811488378</v>
+        <v>0.2683560114391407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H8">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.919927666666667</v>
+        <v>4.170713666666666</v>
       </c>
       <c r="N8">
-        <v>14.759783</v>
+        <v>12.512141</v>
       </c>
       <c r="O8">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="P8">
-        <v>0.2880104164518184</v>
+        <v>0.1910541549206663</v>
       </c>
       <c r="Q8">
-        <v>4.621611132550112</v>
+        <v>11.36416596562889</v>
       </c>
       <c r="R8">
-        <v>41.59450019295101</v>
+        <v>102.27749369066</v>
       </c>
       <c r="S8">
-        <v>0.01036827078332529</v>
+        <v>0.03240703462957707</v>
       </c>
       <c r="T8">
-        <v>0.01036827078332529</v>
+        <v>0.03240703462957706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H9">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.051817</v>
       </c>
       <c r="O9">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017604</v>
       </c>
       <c r="P9">
-        <v>0.3912748693382315</v>
+        <v>0.3061812484017603</v>
       </c>
       <c r="Q9">
-        <v>6.278662814694334</v>
+        <v>18.21208507004667</v>
       </c>
       <c r="R9">
-        <v>56.50796533224901</v>
+        <v>163.90876563042</v>
       </c>
       <c r="S9">
-        <v>0.01408575372372923</v>
+        <v>0.05193515065926305</v>
       </c>
       <c r="T9">
-        <v>0.01408575372372923</v>
+        <v>0.05193515065926303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H10">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.478597666666666</v>
+        <v>10.975355</v>
       </c>
       <c r="N10">
-        <v>16.435793</v>
+        <v>32.926065</v>
       </c>
       <c r="O10">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775733</v>
       </c>
       <c r="P10">
-        <v>0.3207147142099501</v>
+        <v>0.5027645966775732</v>
       </c>
       <c r="Q10">
-        <v>5.146406549546779</v>
+        <v>29.90513512076667</v>
       </c>
       <c r="R10">
-        <v>46.317658945921</v>
+        <v>269.1462160869</v>
       </c>
       <c r="S10">
-        <v>0.01154561366943418</v>
+        <v>0.08528005947748717</v>
       </c>
       <c r="T10">
-        <v>0.01154561366943419</v>
+        <v>0.08528005947748712</v>
       </c>
     </row>
   </sheetData>
